--- a/10v10/11/Alamo-Cup/TXST_TAMU.xlsx
+++ b/10v10/11/Alamo-Cup/TXST_TAMU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\11\Alamo-Cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\11\Alamo-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90D38D-9F46-4336-A700-90E65E684D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FBF727-92F2-48B2-891C-A12AA986BB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="113">
   <si>
     <t>A</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>LOUIS SANCHEZ</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>MIKE MILLER</t>
@@ -153,9 +150,6 @@
     <t>SAMMY GARZA</t>
   </si>
   <si>
-    <t>YB4</t>
-  </si>
-  <si>
     <t>Q69</t>
   </si>
   <si>
@@ -204,22 +198,13 @@
     <t>YA21</t>
   </si>
   <si>
-    <t>?,69</t>
-  </si>
-  <si>
     <t>1,99</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>YB0</t>
   </si>
   <si>
     <t>2YB99</t>
-  </si>
-  <si>
-    <t>YB99</t>
   </si>
   <si>
     <t>RCA</t>
@@ -229,6 +214,162 @@
   </si>
   <si>
     <t>BRANDON MACDOWRA</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>0246</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>0330</t>
+  </si>
+  <si>
+    <t>0359</t>
+  </si>
+  <si>
+    <t>0408</t>
+  </si>
+  <si>
+    <t>0416</t>
+  </si>
+  <si>
+    <t>0435</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>0629</t>
+  </si>
+  <si>
+    <t>0640</t>
+  </si>
+  <si>
+    <t>0716</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>0911</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>0941</t>
+  </si>
+  <si>
+    <t>0926</t>
+  </si>
+  <si>
+    <t>0808</t>
+  </si>
+  <si>
+    <t>0724</t>
+  </si>
+  <si>
+    <t>YB4,YB25</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>CAMERON VILLAMIL</t>
+  </si>
+  <si>
+    <t>1,69</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>S,YB99</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1300</t>
   </si>
 </sst>
 </file>
@@ -517,10 +658,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,17 +673,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -790,21 +931,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -817,142 +958,142 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22">
+      <c r="C2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="26">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>12</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="28" t="str">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="27" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="29" t="str">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="18" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>150*</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="22">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="26">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>7</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="28" t="str">
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="27" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="29" t="str">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="18" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>70</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -995,39 +1136,53 @@
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="J7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1051,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>5</v>
@@ -1060,7 +1215,7 @@
         <v>41</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>6</v>
@@ -1078,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>5</v>
@@ -1087,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>8</v>
@@ -1132,42 +1287,58 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1203,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="10">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L11" s="11">
         <v>7</v>
@@ -1278,42 +1449,58 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1343,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>7</v>
@@ -1424,42 +1611,58 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1513,10 +1716,10 @@
         <v>6</v>
       </c>
       <c r="Q17" s="10">
+        <v>4</v>
+      </c>
+      <c r="R17" s="11">
         <v>15</v>
-      </c>
-      <c r="R17" s="11">
-        <v>4</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>6</v>
@@ -1567,55 +1770,71 @@
     </row>
     <row r="19" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="V19" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="10">
         <v>50</v>
@@ -1649,7 +1868,7 @@
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20" s="10">
         <v>41</v>
@@ -1658,8 +1877,8 @@
       <c r="P20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="10" t="s">
-        <v>19</v>
+      <c r="Q20" s="10">
+        <v>99</v>
       </c>
       <c r="R20" s="11">
         <v>1</v>
@@ -1668,19 +1887,19 @@
         <v>13</v>
       </c>
       <c r="T20" s="10">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U20" s="11">
         <v>69</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="W20" s="10">
         <v>0</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -1718,48 +1937,62 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="I22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="M22" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="V22" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
@@ -1780,7 +2013,7 @@
         <v>69</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>4</v>
@@ -1790,7 +2023,7 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23" s="10">
         <v>11</v>
@@ -1811,8 +2044,8 @@
       <c r="Q23" s="10">
         <v>10</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>19</v>
+      <c r="R23" s="11">
+        <v>1</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>4</v>
@@ -1865,12 +2098,14 @@
     </row>
     <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
         <v>1</v>
@@ -1911,7 +2146,7 @@
     </row>
     <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B26" s="10">
         <v>23</v>
@@ -29095,13 +29330,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29111,6 +29339,13 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29125,8 +29360,8 @@
   </sheetPr>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29165,7 +29400,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29173,7 +29408,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>12</v>
@@ -29213,7 +29448,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>15</v>
@@ -29238,10 +29473,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29249,10 +29484,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29275,7 +29510,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29284,7 +29519,7 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29293,7 +29528,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29302,7 +29537,7 @@
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29311,7 +29546,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29326,7 +29561,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>14</v>
@@ -29337,10 +29572,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29348,7 +29583,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="12"/>
     </row>
@@ -29357,7 +29592,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>16</v>
@@ -29368,7 +29603,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="12"/>
     </row>
@@ -29377,10 +29612,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29421,7 +29656,7 @@
       </c>
       <c r="B34" s="17"/>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29448,7 +29683,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29486,7 +29721,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29543,7 +29778,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29570,7 +29805,7 @@
       </c>
       <c r="B57" s="17"/>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29662,7 +29897,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -29733,7 +29968,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29753,7 +29988,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29817,41 +30052,44 @@
       </c>
       <c r="B96" s="17"/>
     </row>
-    <row r="97" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>94</v>
       </c>
       <c r="B97" s="17"/>
     </row>
-    <row r="98" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>95</v>
       </c>
       <c r="B98" s="17"/>
     </row>
-    <row r="99" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>96</v>
       </c>
       <c r="B99" s="17"/>
     </row>
-    <row r="100" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>97</v>
       </c>
       <c r="B100" s="17"/>
     </row>
-    <row r="101" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>98</v>
       </c>
       <c r="B101" s="17"/>
     </row>
-    <row r="102" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>99</v>
       </c>
       <c r="B102" s="17"/>
+      <c r="C102" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
